--- a/Digital_Signage_kayttajatestaus.xlsx
+++ b/Digital_Signage_kayttajatestaus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HannaHoffren/Desktop/Koulu/Webteknologiat ja media-alustat/Javascript/DSdemo/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HannaHoffren/Desktop/Koulu/Webteknologiat ja media-alustat/Javascript/DSdemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D015FA7-E516-194A-A072-8A0BE6268B13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CC16C7-A967-2847-90B5-F57F12092FE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="26260" windowHeight="17040" activeTab="3" xr2:uid="{79DCB777-8955-9D47-80BA-343B61CB2576}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="26260" windowHeight="17040" xr2:uid="{79DCB777-8955-9D47-80BA-343B61CB2576}"/>
   </bookViews>
   <sheets>
     <sheet name="Myyrmäki" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>Stepit</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>Slideshow jatkaa valitun toimipisteen tiedoilla pyörimistä siitä kohdasta mistä vaihto tapahtuu</t>
+  </si>
+  <si>
+    <t>Reittitiedot ovat oikein (Kellonaika näkyy oikein)</t>
+  </si>
+  <si>
+    <t>Sunnuntai = ei ruokalistaa</t>
+  </si>
+  <si>
+    <t>Videossa näkyy myyrmäen video</t>
+  </si>
+  <si>
+    <t>Oikeat tiedot haetaan omasta valitulla kielellä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Väärän toimipisteen video </t>
+  </si>
+  <si>
+    <t>Sunnuntaina ei ruokalistaa</t>
+  </si>
+  <si>
+    <t>Väärän toimipisteen video</t>
   </si>
 </sst>
 </file>
@@ -238,7 +259,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +294,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73EC5E"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -345,6 +372,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,16 +689,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5199FA5F-FC79-9E4F-AE5A-4740C4DCB494}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="81.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,7 +800,9 @@
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
@@ -785,7 +815,9 @@
         <v>12</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
@@ -796,7 +828,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -806,10 +840,12 @@
         <v>32</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -821,8 +857,12 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
@@ -835,7 +875,9 @@
         <v>13</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -848,7 +890,9 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -861,7 +905,9 @@
         <v>10</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
@@ -874,7 +920,9 @@
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -884,7 +932,9 @@
         <v>35</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -897,7 +947,9 @@
         <v>46</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
@@ -936,7 +988,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,7 +996,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1048,7 +1100,9 @@
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
@@ -1061,7 +1115,9 @@
         <v>43</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
@@ -1072,7 +1128,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -1085,7 +1143,9 @@
         <v>33</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -1097,8 +1157,12 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
@@ -1111,7 +1175,9 @@
         <v>13</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -1124,7 +1190,9 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -1136,8 +1204,12 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
@@ -1150,7 +1222,9 @@
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -1160,7 +1234,9 @@
         <v>35</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -1173,7 +1249,9 @@
         <v>46</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,7 +1263,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1271,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1297,7 +1375,9 @@
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
@@ -1310,7 +1390,9 @@
         <v>42</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
@@ -1323,7 +1405,9 @@
         <v>39</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
@@ -1334,7 +1418,9 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -1344,10 +1430,12 @@
         <v>32</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
@@ -1359,8 +1447,12 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -1370,10 +1462,12 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
@@ -1386,7 +1480,9 @@
         <v>8</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
@@ -1398,8 +1494,12 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
@@ -1412,7 +1512,9 @@
         <v>11</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -1422,7 +1524,9 @@
         <v>35</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
@@ -1435,7 +1539,9 @@
         <v>46</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F672E712-BF14-8D46-BAA8-BB5CA741EB5A}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1561,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1559,7 +1665,9 @@
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
@@ -1572,7 +1680,9 @@
         <v>44</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
@@ -1583,7 +1693,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -1596,7 +1708,9 @@
         <v>33</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -1609,7 +1723,9 @@
         <v>6</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
@@ -1622,7 +1738,9 @@
         <v>13</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -1635,7 +1753,9 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -1647,8 +1767,12 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
@@ -1661,7 +1785,9 @@
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -1671,7 +1797,9 @@
         <v>35</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -1684,7 +1812,9 @@
         <v>46</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Digital_Signage_kayttajatestaus.xlsx
+++ b/Digital_Signage_kayttajatestaus.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HannaHoffren/Desktop/Koulu/Webteknologiat ja media-alustat/Javascript/DSdemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CC16C7-A967-2847-90B5-F57F12092FE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F057D-0D1D-C248-9B81-B5D7D1C3C997}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="26260" windowHeight="17040" xr2:uid="{79DCB777-8955-9D47-80BA-343B61CB2576}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="26260" windowHeight="17040" activeTab="2" xr2:uid="{79DCB777-8955-9D47-80BA-343B61CB2576}"/>
   </bookViews>
   <sheets>
     <sheet name="Myyrmäki" sheetId="1" r:id="rId1"/>
     <sheet name="Karaportti" sheetId="5" r:id="rId2"/>
     <sheet name="Myllypuro (ENG)" sheetId="6" r:id="rId3"/>
     <sheet name="Arabia" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
   <si>
     <t>Stepit</t>
   </si>
@@ -78,12 +77,6 @@
     <t>Oikeat tiedot haetaan omasta</t>
   </si>
   <si>
-    <t>Käyttötapaus tunniste</t>
-  </si>
-  <si>
-    <t>Testitapaus tunniste</t>
-  </si>
-  <si>
     <t>Testitapaus</t>
   </si>
   <si>
@@ -99,15 +92,6 @@
     <t>Testipvm</t>
   </si>
   <si>
-    <t>Automatisoitu</t>
-  </si>
-  <si>
-    <t>Ei</t>
-  </si>
-  <si>
-    <t>Suunnittelija</t>
-  </si>
-  <si>
     <t>Järjestysnumero</t>
   </si>
   <si>
@@ -183,26 +167,17 @@
     <t>Sunnuntai = ei ruokalistaa</t>
   </si>
   <si>
-    <t>Videossa näkyy myyrmäen video</t>
-  </si>
-  <si>
     <t>Oikeat tiedot haetaan omasta valitulla kielellä</t>
   </si>
   <si>
-    <t xml:space="preserve">Väärän toimipisteen video </t>
-  </si>
-  <si>
-    <t>Sunnuntaina ei ruokalistaa</t>
-  </si>
-  <si>
-    <t>Väärän toimipisteen video</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +232,21 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -343,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,7 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -373,6 +362,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5199FA5F-FC79-9E4F-AE5A-4740C4DCB494}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,7 +692,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="81.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,118 +702,114 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>3</v>
       </c>
@@ -828,26 +818,26 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>5</v>
       </c>
@@ -858,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>6</v>
       </c>
@@ -875,11 +865,11 @@
         <v>13</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>7</v>
       </c>
@@ -890,11 +880,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>8</v>
       </c>
@@ -905,8 +895,8 @@
         <v>10</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="22" t="s">
-        <v>25</v>
+      <c r="E21" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -914,65 +904,65 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="22" t="s">
-        <v>25</v>
+      <c r="E24" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -988,7 +978,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,96 +986,88 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>43</v>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1094,14 +1076,14 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1109,14 +1091,14 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="13" t="s">
-        <v>25</v>
+      <c r="E15" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,8 +1110,8 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="13" t="s">
-        <v>25</v>
+      <c r="E16" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,14 +1119,14 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="13" t="s">
-        <v>25</v>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1158,10 +1140,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1175,8 +1157,8 @@
         <v>13</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="13" t="s">
-        <v>25</v>
+      <c r="E19" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1190,8 +1172,8 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
+      <c r="E20" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,11 +1186,9 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
+      <c r="D21" s="1"/>
+      <c r="E21" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1216,14 +1196,14 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="13" t="s">
-        <v>25</v>
+      <c r="E22" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1231,11 +1211,11 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="13" t="s">
-        <v>25</v>
+      <c r="E23" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1243,14 +1223,14 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="13" t="s">
-        <v>25</v>
+      <c r="E24" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1262,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D62F51-C8F1-ED42-89BE-DB7511E9D25F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,92 +1255,84 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1369,14 +1341,14 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,14 +1356,14 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="22" t="s">
-        <v>25</v>
+      <c r="E15" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1399,18 +1371,18 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="22" t="s">
-        <v>25</v>
+      <c r="E16" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1418,8 +1390,8 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="22" t="s">
-        <v>25</v>
+      <c r="E17" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,18 +1399,18 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="13" t="s">
-        <v>25</v>
+      <c r="E18" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1447,11 +1419,11 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
+      <c r="D19" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,15 +1434,15 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
+      <c r="E20" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1480,8 +1452,8 @@
         <v>8</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="22" t="s">
-        <v>25</v>
+      <c r="E21" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1494,26 +1466,24 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>26</v>
+      <c r="D22" s="1"/>
+      <c r="E22" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="22" t="s">
-        <v>25</v>
+      <c r="E23" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1521,26 +1491,26 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="22" t="s">
-        <v>25</v>
+      <c r="E24" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="A25" s="7">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="22" t="s">
-        <v>25</v>
+      <c r="E25" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1523,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1565,92 +1535,84 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>44</v>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1659,14 +1621,14 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1674,14 +1636,14 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="22" t="s">
-        <v>25</v>
+      <c r="E15" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1693,8 +1655,8 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="22" t="s">
-        <v>25</v>
+      <c r="E16" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1702,14 +1664,14 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="22" t="s">
-        <v>25</v>
+      <c r="E17" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1722,9 +1684,11 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1738,8 +1702,8 @@
         <v>13</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="22" t="s">
-        <v>25</v>
+      <c r="E19" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1753,8 +1717,8 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="22" t="s">
-        <v>25</v>
+      <c r="E20" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,11 +1731,9 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
+      <c r="D21" s="1"/>
+      <c r="E21" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1779,14 +1741,14 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="22" t="s">
-        <v>25</v>
+      <c r="E22" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1794,11 +1756,11 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="22" t="s">
-        <v>25</v>
+      <c r="E23" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1806,29 +1768,17 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="22" t="s">
-        <v>25</v>
+      <c r="E24" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6241401-65C6-7A42-9844-1F39D161C247}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Digital_Signage_kayttajatestaus.xlsx
+++ b/Digital_Signage_kayttajatestaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HannaHoffren/Desktop/Koulu/Webteknologiat ja media-alustat/Javascript/DSdemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F057D-0D1D-C248-9B81-B5D7D1C3C997}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510C1CF-BEFB-8F46-9936-289EE8F2ED0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="460" windowWidth="26260" windowHeight="17040" activeTab="2" xr2:uid="{79DCB777-8955-9D47-80BA-343B61CB2576}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="47">
   <si>
     <t>Stepit</t>
   </si>
@@ -164,13 +164,16 @@
     <t>Reittitiedot ovat oikein (Kellonaika näkyy oikein)</t>
   </si>
   <si>
-    <t>Sunnuntai = ei ruokalistaa</t>
-  </si>
-  <si>
     <t>Oikeat tiedot haetaan omasta valitulla kielellä</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Oikeanlainen virheilmoitus näkyy</t>
+  </si>
+  <si>
+    <t>Ruokalista ei näy</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -847,11 +850,9 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,7 +979,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -1140,10 +1141,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1243,7 +1244,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -1419,11 +1420,9 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
+      <c r="D19" s="22"/>
+      <c r="E19" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="12" t="s">
@@ -1523,7 +1522,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1530,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1560,7 +1559,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -1685,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>

--- a/Digital_Signage_kayttajatestaus.xlsx
+++ b/Digital_Signage_kayttajatestaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HannaHoffren/Desktop/Koulu/Webteknologiat ja media-alustat/Javascript/DSdemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510C1CF-BEFB-8F46-9936-289EE8F2ED0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001A397C-7FB2-7D47-BA05-423B164D6F1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="460" windowWidth="26260" windowHeight="17040" activeTab="2" xr2:uid="{79DCB777-8955-9D47-80BA-343B61CB2576}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="46">
   <si>
     <t>Stepit</t>
   </si>
@@ -170,10 +170,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>Oikeanlainen virheilmoitus näkyy</t>
-  </si>
-  <si>
-    <t>Ruokalista ei näy</t>
+    <t>Virheilmoitus näkyy</t>
   </si>
 </sst>
 </file>
@@ -336,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -357,9 +354,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -370,6 +364,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,15 +690,15 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="81.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,15 +712,15 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
@@ -734,10 +737,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -756,56 +759,93 @@
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="13" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="12" t="s">
@@ -814,134 +854,95 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="E21" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
@@ -971,28 +972,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE398888-185B-3741-B8F8-215BC4EC9836}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1012,10 +1013,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1040,47 +1041,86 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="12" t="s">
@@ -1089,13 +1129,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="12" t="s">
@@ -1104,12 +1144,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="12" t="s">
         <v>20</v>
@@ -1117,13 +1159,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="12" t="s">
@@ -1132,30 +1174,28 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="12" t="s">
@@ -1164,100 +1204,57 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D62F51-C8F1-ED42-89BE-DB7511E9D25F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1277,10 +1274,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1305,47 +1302,97 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="12" t="s">
@@ -1354,188 +1401,131 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <v>4</v>
+      <c r="A17" s="7">
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>6</v>
+      <c r="A19" s="7">
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>8</v>
+      <c r="E20" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F672E712-BF14-8D46-BAA8-BB5CA741EB5A}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1555,10 +1545,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1583,201 +1573,194 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="12" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>